--- a/patient_data/patient_58.xlsx
+++ b/patient_data/patient_58.xlsx
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -649,13 +649,13 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1839,13 +1839,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1916,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
